--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -2660,7 +2660,7 @@
         <v>166</v>
       </c>
       <c r="B164" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="3"/>
     </row>
@@ -2669,7 +2669,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C165" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -2543,7 +2543,7 @@
         <v>153</v>
       </c>
       <c r="B151" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -2552,7 +2552,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -2642,7 +2642,7 @@
         <v>164</v>
       </c>
       <c r="B162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="3"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>172</v>
       </c>
       <c r="B170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="3"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>176</v>
       </c>
       <c r="B174" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" s="3"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C176" s="3"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" s="3"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>184</v>
       </c>
       <c r="B182" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -2795,7 +2795,7 @@
         <v>181</v>
       </c>
       <c r="B179" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" s="3"/>
     </row>
@@ -2867,7 +2867,7 @@
         <v>189</v>
       </c>
       <c r="B187" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" s="3"/>
     </row>
@@ -2912,7 +2912,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" s="3"/>
     </row>
@@ -2921,7 +2921,7 @@
         <v>195</v>
       </c>
       <c r="B193" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="3"/>
     </row>
@@ -2948,7 +2948,7 @@
         <v>198</v>
       </c>
       <c r="B196" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" s="3"/>
     </row>
@@ -2957,7 +2957,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" s="3"/>
     </row>
@@ -2966,7 +2966,7 @@
         <v>200</v>
       </c>
       <c r="B198" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" s="3"/>
     </row>
@@ -2975,7 +2975,7 @@
         <v>201</v>
       </c>
       <c r="B199" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" s="3"/>
     </row>
@@ -2984,7 +2984,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="3"/>
     </row>
@@ -2993,7 +2993,7 @@
         <v>203</v>
       </c>
       <c r="B201" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -3002,7 +3002,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" s="3"/>
     </row>
@@ -3011,7 +3011,7 @@
         <v>205</v>
       </c>
       <c r="B203" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" s="3"/>
     </row>
@@ -3047,7 +3047,7 @@
         <v>209</v>
       </c>
       <c r="B207" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" s="3"/>
     </row>
@@ -3092,7 +3092,7 @@
         <v>214</v>
       </c>
       <c r="B212" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="3"/>
     </row>
@@ -3101,7 +3101,7 @@
         <v>215</v>
       </c>
       <c r="B213" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C213" s="3"/>
     </row>
@@ -3155,7 +3155,7 @@
         <v>221</v>
       </c>
       <c r="B219" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" s="3"/>
     </row>
@@ -3164,7 +3164,7 @@
         <v>222</v>
       </c>
       <c r="B220" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" s="3"/>
     </row>
@@ -3173,7 +3173,7 @@
         <v>223</v>
       </c>
       <c r="B221" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C221" s="3"/>
     </row>
@@ -3182,7 +3182,7 @@
         <v>224</v>
       </c>
       <c r="B222" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" s="3"/>
     </row>
@@ -3191,7 +3191,7 @@
         <v>225</v>
       </c>
       <c r="B223" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" s="3"/>
     </row>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -783,7 +783,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,13 +794,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -852,13 +858,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1180,7 +1186,7 @@
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1239,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1338,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1347,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1356,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1365,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1374,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1377,7 +1383,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1392,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1401,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1419,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1428,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +1437,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1446,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1449,7 +1455,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -19,7 +19,7 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>target:</t>
+    <t>target</t>
   </si>
   <si>
     <t>Legenda</t>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -783,7 +783,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,12 +795,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -853,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,9 +857,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1181,9 +1172,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="255.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="255.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1201,7 +1192,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1212,7 +1203,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1223,7 +1214,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1234,7 +1225,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -1243,7 +1234,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
@@ -1252,7 +1243,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
@@ -1261,7 +1252,7 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
@@ -1270,7 +1261,7 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
@@ -1279,7 +1270,7 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3"/>
@@ -1288,7 +1279,7 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
@@ -1297,7 +1288,7 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
@@ -1306,7 +1297,7 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="3"/>
@@ -1315,7 +1306,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="3"/>
@@ -1324,7 +1315,7 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="3"/>
@@ -1333,7 +1324,7 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="3"/>
@@ -1342,7 +1333,7 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="3"/>
@@ -1351,7 +1342,7 @@
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="3"/>
@@ -1360,7 +1351,7 @@
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="3"/>
@@ -1369,7 +1360,7 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="3"/>
@@ -1378,7 +1369,7 @@
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="3"/>
@@ -1387,7 +1378,7 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="3"/>
@@ -1396,7 +1387,7 @@
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
@@ -1405,7 +1396,7 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="3"/>
@@ -1414,7 +1405,7 @@
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
@@ -1423,7 +1414,7 @@
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
@@ -1432,7 +1423,7 @@
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
@@ -1441,7 +1432,7 @@
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="3"/>
@@ -1450,7 +1441,7 @@
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="3"/>
@@ -1459,7 +1450,7 @@
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="3"/>
@@ -1468,7 +1459,7 @@
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="3"/>
@@ -1477,7 +1468,7 @@
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="3"/>
@@ -1486,7 +1477,7 @@
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="3"/>
@@ -1495,7 +1486,7 @@
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="3"/>
@@ -1504,7 +1495,7 @@
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="3"/>
@@ -1513,7 +1504,7 @@
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="3"/>
@@ -1522,7 +1513,7 @@
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="3"/>
@@ -1531,7 +1522,7 @@
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="3"/>
@@ -1540,7 +1531,7 @@
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="3"/>
@@ -1549,7 +1540,7 @@
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="3"/>
@@ -1558,7 +1549,7 @@
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="3"/>
@@ -1567,7 +1558,7 @@
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="3"/>
@@ -1576,7 +1567,7 @@
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="3"/>
@@ -1585,7 +1576,7 @@
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="3"/>
@@ -1594,7 +1585,7 @@
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="3"/>
@@ -1603,7 +1594,7 @@
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>2</v>
       </c>
       <c r="C46" s="3"/>
@@ -1612,7 +1603,7 @@
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="3"/>
@@ -1621,7 +1612,7 @@
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="3"/>
@@ -1630,7 +1621,7 @@
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>2</v>
       </c>
       <c r="C49" s="3"/>
@@ -1639,7 +1630,7 @@
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
       <c r="C50" s="3"/>
@@ -1648,7 +1639,7 @@
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
       <c r="C51" s="3"/>
@@ -1657,7 +1648,7 @@
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" s="3"/>
@@ -1666,7 +1657,7 @@
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>2</v>
       </c>
       <c r="C53" s="3"/>
@@ -1675,7 +1666,7 @@
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="3"/>
@@ -1684,7 +1675,7 @@
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="3"/>
@@ -1693,7 +1684,7 @@
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56" s="3"/>
@@ -1702,7 +1693,7 @@
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
       <c r="C57" s="3"/>
@@ -1711,7 +1702,7 @@
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="3"/>
@@ -1720,7 +1711,7 @@
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59" s="3"/>
@@ -1729,7 +1720,7 @@
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="3"/>
@@ -1738,7 +1729,7 @@
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="3"/>
@@ -1747,7 +1738,7 @@
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>2</v>
       </c>
       <c r="C62" s="3"/>
@@ -1756,7 +1747,7 @@
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="3"/>
@@ -1765,7 +1756,7 @@
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>2</v>
       </c>
       <c r="C64" s="3"/>
@@ -1774,7 +1765,7 @@
       <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="3"/>
@@ -1783,7 +1774,7 @@
       <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66" s="3"/>
@@ -1792,7 +1783,7 @@
       <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>2</v>
       </c>
       <c r="C67" s="3"/>
@@ -1801,7 +1792,7 @@
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="3"/>
@@ -1810,7 +1801,7 @@
       <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" s="3"/>
@@ -1819,7 +1810,7 @@
       <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>2</v>
       </c>
       <c r="C70" s="3"/>
@@ -1828,7 +1819,7 @@
       <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>1</v>
       </c>
       <c r="C71" s="3"/>
@@ -1837,7 +1828,7 @@
       <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" s="3"/>
@@ -1846,7 +1837,7 @@
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>0</v>
       </c>
       <c r="C73" s="3"/>
@@ -1855,7 +1846,7 @@
       <c r="A74" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>2</v>
       </c>
       <c r="C74" s="3"/>
@@ -1864,7 +1855,7 @@
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="3"/>
@@ -1873,7 +1864,7 @@
       <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
       <c r="C76" s="3"/>
@@ -1882,7 +1873,7 @@
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>2</v>
       </c>
       <c r="C77" s="3"/>
@@ -1891,7 +1882,7 @@
       <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>1</v>
       </c>
       <c r="C78" s="3"/>
@@ -1900,7 +1891,7 @@
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2">
         <v>1</v>
       </c>
       <c r="C79" s="3"/>
@@ -1909,7 +1900,7 @@
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
       <c r="C80" s="3"/>
@@ -1918,7 +1909,7 @@
       <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2">
         <v>0</v>
       </c>
       <c r="C81" s="3"/>
@@ -1927,7 +1918,7 @@
       <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82" s="3"/>
@@ -1936,7 +1927,7 @@
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83" s="3"/>
@@ -1945,7 +1936,7 @@
       <c r="A84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="2">
         <v>2</v>
       </c>
       <c r="C84" s="3"/>
@@ -1954,7 +1945,7 @@
       <c r="A85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="2">
         <v>2</v>
       </c>
       <c r="C85" s="3"/>
@@ -1963,7 +1954,7 @@
       <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="2">
         <v>2</v>
       </c>
       <c r="C86" s="3"/>
@@ -1972,7 +1963,7 @@
       <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="2">
         <v>1</v>
       </c>
       <c r="C87" s="3"/>
@@ -1981,7 +1972,7 @@
       <c r="A88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="2">
         <v>2</v>
       </c>
       <c r="C88" s="3"/>
@@ -1990,7 +1981,7 @@
       <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="2">
         <v>1</v>
       </c>
       <c r="C89" s="3"/>
@@ -1999,7 +1990,7 @@
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="3"/>
@@ -2008,7 +1999,7 @@
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="2">
         <v>1</v>
       </c>
       <c r="C91" s="3"/>
@@ -2017,7 +2008,7 @@
       <c r="A92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="2">
         <v>2</v>
       </c>
       <c r="C92" s="3"/>
@@ -2026,7 +2017,7 @@
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="2">
         <v>1</v>
       </c>
       <c r="C93" s="3"/>
@@ -2035,7 +2026,7 @@
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="3"/>
@@ -2044,7 +2035,7 @@
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="2">
         <v>2</v>
       </c>
       <c r="C95" s="3"/>
@@ -2053,7 +2044,7 @@
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="2">
         <v>2</v>
       </c>
       <c r="C96" s="3"/>
@@ -2062,7 +2053,7 @@
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="2">
         <v>2</v>
       </c>
       <c r="C97" s="3"/>
@@ -2071,7 +2062,7 @@
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <v>2</v>
       </c>
       <c r="C98" s="3"/>
@@ -2080,7 +2071,7 @@
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" s="3"/>
@@ -2089,7 +2080,7 @@
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="2">
         <v>2</v>
       </c>
       <c r="C100" s="3"/>
@@ -2098,7 +2089,7 @@
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="2">
         <v>2</v>
       </c>
       <c r="C101" s="3"/>
@@ -2107,7 +2098,7 @@
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102" s="3"/>
@@ -2116,7 +2107,7 @@
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2">
         <v>2</v>
       </c>
       <c r="C103" s="3"/>
@@ -2125,7 +2116,7 @@
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="2">
         <v>1</v>
       </c>
       <c r="C104" s="3"/>
@@ -2134,7 +2125,7 @@
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="2">
         <v>1</v>
       </c>
       <c r="C105" s="3"/>
@@ -2143,7 +2134,7 @@
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>0</v>
       </c>
       <c r="C106" s="3"/>
@@ -2152,7 +2143,7 @@
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="C107" s="3"/>
@@ -2161,7 +2152,7 @@
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="2">
         <v>2</v>
       </c>
       <c r="C108" s="3"/>
@@ -2170,7 +2161,7 @@
       <c r="A109" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="3"/>
@@ -2179,7 +2170,7 @@
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="2">
         <v>2</v>
       </c>
       <c r="C110" s="3"/>
@@ -2188,7 +2179,7 @@
       <c r="A111" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="2">
         <v>2</v>
       </c>
       <c r="C111" s="3"/>
@@ -2197,7 +2188,7 @@
       <c r="A112" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="2">
         <v>0</v>
       </c>
       <c r="C112" s="3"/>
@@ -2206,7 +2197,7 @@
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="2">
         <v>2</v>
       </c>
       <c r="C113" s="3"/>
@@ -2215,7 +2206,7 @@
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="2">
         <v>2</v>
       </c>
       <c r="C114" s="3"/>
@@ -2224,7 +2215,7 @@
       <c r="A115" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="3"/>
@@ -2233,7 +2224,7 @@
       <c r="A116" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="3"/>
@@ -2242,7 +2233,7 @@
       <c r="A117" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="2">
         <v>1</v>
       </c>
       <c r="C117" s="3"/>
@@ -2251,7 +2242,7 @@
       <c r="A118" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="2">
         <v>1</v>
       </c>
       <c r="C118" s="3"/>
@@ -2260,7 +2251,7 @@
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="2">
         <v>0</v>
       </c>
       <c r="C119" s="3"/>
@@ -2269,7 +2260,7 @@
       <c r="A120" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="2">
         <v>1</v>
       </c>
       <c r="C120" s="3"/>
@@ -2278,7 +2269,7 @@
       <c r="A121" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="2">
         <v>1</v>
       </c>
       <c r="C121" s="3"/>
@@ -2287,7 +2278,7 @@
       <c r="A122" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="2">
         <v>1</v>
       </c>
       <c r="C122" s="3"/>
@@ -2296,7 +2287,7 @@
       <c r="A123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="2">
         <v>1</v>
       </c>
       <c r="C123" s="3"/>
@@ -2305,7 +2296,7 @@
       <c r="A124" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="2">
         <v>1</v>
       </c>
       <c r="C124" s="3"/>
@@ -2314,7 +2305,7 @@
       <c r="A125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="2">
         <v>2</v>
       </c>
       <c r="C125" s="3"/>
@@ -2323,7 +2314,7 @@
       <c r="A126" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="2">
         <v>0</v>
       </c>
       <c r="C126" s="3"/>
@@ -2332,7 +2323,7 @@
       <c r="A127" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="2">
         <v>1</v>
       </c>
       <c r="C127" s="3"/>
@@ -2341,7 +2332,7 @@
       <c r="A128" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="2">
         <v>1</v>
       </c>
       <c r="C128" s="3"/>
@@ -2350,7 +2341,7 @@
       <c r="A129" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="2">
         <v>1</v>
       </c>
       <c r="C129" s="3"/>
@@ -2359,7 +2350,7 @@
       <c r="A130" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="2">
         <v>2</v>
       </c>
       <c r="C130" s="3"/>
@@ -2368,7 +2359,7 @@
       <c r="A131" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="2">
         <v>2</v>
       </c>
       <c r="C131" s="3"/>
@@ -2377,7 +2368,7 @@
       <c r="A132" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="2">
         <v>1</v>
       </c>
       <c r="C132" s="3"/>
@@ -2386,7 +2377,7 @@
       <c r="A133" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="2">
         <v>2</v>
       </c>
       <c r="C133" s="3"/>
@@ -2395,7 +2386,7 @@
       <c r="A134" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="2">
         <v>0</v>
       </c>
       <c r="C134" s="3"/>
@@ -2404,7 +2395,7 @@
       <c r="A135" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="2">
         <v>1</v>
       </c>
       <c r="C135" s="3"/>
@@ -2413,7 +2404,7 @@
       <c r="A136" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="2">
         <v>1</v>
       </c>
       <c r="C136" s="3"/>
@@ -2422,7 +2413,7 @@
       <c r="A137" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="2">
         <v>1</v>
       </c>
       <c r="C137" s="3"/>
@@ -2431,7 +2422,7 @@
       <c r="A138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="2">
         <v>1</v>
       </c>
       <c r="C138" s="3"/>
@@ -2440,7 +2431,7 @@
       <c r="A139" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="2">
         <v>2</v>
       </c>
       <c r="C139" s="3"/>
@@ -2449,7 +2440,7 @@
       <c r="A140" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="2">
         <v>2</v>
       </c>
       <c r="C140" s="3"/>
@@ -2458,7 +2449,7 @@
       <c r="A141" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="2">
         <v>2</v>
       </c>
       <c r="C141" s="3"/>
@@ -2467,7 +2458,7 @@
       <c r="A142" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="2">
         <v>1</v>
       </c>
       <c r="C142" s="3"/>
@@ -2476,7 +2467,7 @@
       <c r="A143" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="2">
         <v>2</v>
       </c>
       <c r="C143" s="3"/>
@@ -2485,7 +2476,7 @@
       <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="2">
         <v>2</v>
       </c>
       <c r="C144" s="3"/>
@@ -2494,7 +2485,7 @@
       <c r="A145" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="2">
         <v>1</v>
       </c>
       <c r="C145" s="3"/>
@@ -2503,7 +2494,7 @@
       <c r="A146" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="2">
         <v>2</v>
       </c>
       <c r="C146" s="3"/>
@@ -2512,7 +2503,7 @@
       <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="2">
         <v>1</v>
       </c>
       <c r="C147" s="3"/>
@@ -2521,7 +2512,7 @@
       <c r="A148" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="2">
         <v>2</v>
       </c>
       <c r="C148" s="3"/>
@@ -2530,7 +2521,7 @@
       <c r="A149" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2">
         <v>2</v>
       </c>
       <c r="C149" s="3"/>
@@ -2539,7 +2530,7 @@
       <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="2">
         <v>1</v>
       </c>
       <c r="C150" s="3"/>
@@ -2548,7 +2539,7 @@
       <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="2">
         <v>2</v>
       </c>
       <c r="C151" s="3"/>
@@ -2557,7 +2548,7 @@
       <c r="A152" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="2">
         <v>1</v>
       </c>
       <c r="C152" s="3"/>
@@ -2566,7 +2557,7 @@
       <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="2">
         <v>2</v>
       </c>
       <c r="C153" s="3"/>
@@ -2575,7 +2566,7 @@
       <c r="A154" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="2">
         <v>2</v>
       </c>
       <c r="C154" s="3"/>
@@ -2584,7 +2575,7 @@
       <c r="A155" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="2">
         <v>2</v>
       </c>
       <c r="C155" s="3"/>
@@ -2593,7 +2584,7 @@
       <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="2">
         <v>0</v>
       </c>
       <c r="C156" s="3"/>
@@ -2602,7 +2593,7 @@
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="2">
         <v>0</v>
       </c>
       <c r="C157" s="3"/>
@@ -2611,7 +2602,7 @@
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="2">
         <v>1</v>
       </c>
       <c r="C158" s="3"/>
@@ -2620,7 +2611,7 @@
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="2">
         <v>1</v>
       </c>
       <c r="C159" s="3"/>
@@ -2629,7 +2620,7 @@
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="2">
         <v>0</v>
       </c>
       <c r="C160" s="3"/>
@@ -2638,7 +2629,7 @@
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="2">
         <v>2</v>
       </c>
       <c r="C161" s="3"/>
@@ -2647,7 +2638,7 @@
       <c r="A162" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="2">
         <v>0</v>
       </c>
       <c r="C162" s="3"/>
@@ -2656,7 +2647,7 @@
       <c r="A163" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="2">
         <v>1</v>
       </c>
       <c r="C163" s="3"/>
@@ -2665,7 +2656,7 @@
       <c r="A164" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="2">
         <v>1</v>
       </c>
       <c r="C164" s="3"/>
@@ -2674,7 +2665,7 @@
       <c r="A165" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="2">
         <v>2</v>
       </c>
       <c r="C165" s="3"/>
@@ -2683,7 +2674,7 @@
       <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="2">
         <v>1</v>
       </c>
       <c r="C166" s="3"/>
@@ -2692,7 +2683,7 @@
       <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="2">
         <v>0</v>
       </c>
       <c r="C167" s="3"/>
@@ -2701,7 +2692,7 @@
       <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="2">
         <v>1</v>
       </c>
       <c r="C168" s="3"/>
@@ -2710,7 +2701,7 @@
       <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="2">
         <v>0</v>
       </c>
       <c r="C169" s="3"/>
@@ -2719,7 +2710,7 @@
       <c r="A170" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="2">
         <v>2</v>
       </c>
       <c r="C170" s="3"/>
@@ -2728,7 +2719,7 @@
       <c r="A171" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="2">
         <v>0</v>
       </c>
       <c r="C171" s="3"/>
@@ -2737,7 +2728,7 @@
       <c r="A172" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="2">
         <v>0</v>
       </c>
       <c r="C172" s="3"/>
@@ -2746,7 +2737,7 @@
       <c r="A173" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="2">
         <v>0</v>
       </c>
       <c r="C173" s="3"/>
@@ -2755,7 +2746,7 @@
       <c r="A174" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="2">
         <v>2</v>
       </c>
       <c r="C174" s="3"/>
@@ -2764,7 +2755,7 @@
       <c r="A175" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="2">
         <v>0</v>
       </c>
       <c r="C175" s="3"/>
@@ -2773,7 +2764,7 @@
       <c r="A176" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="2">
         <v>0</v>
       </c>
       <c r="C176" s="3"/>
@@ -2782,7 +2773,7 @@
       <c r="A177" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="2">
         <v>1</v>
       </c>
       <c r="C177" s="3"/>
@@ -2791,7 +2782,7 @@
       <c r="A178" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="2">
         <v>2</v>
       </c>
       <c r="C178" s="3"/>
@@ -2800,7 +2791,7 @@
       <c r="A179" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="2">
         <v>2</v>
       </c>
       <c r="C179" s="3"/>
@@ -2809,7 +2800,7 @@
       <c r="A180" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="2">
         <v>0</v>
       </c>
       <c r="C180" s="3"/>
@@ -2818,7 +2809,7 @@
       <c r="A181" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="2">
         <v>0</v>
       </c>
       <c r="C181" s="3"/>
@@ -2827,7 +2818,7 @@
       <c r="A182" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="2">
         <v>2</v>
       </c>
       <c r="C182" s="3"/>
@@ -2836,7 +2827,7 @@
       <c r="A183" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="2">
         <v>0</v>
       </c>
       <c r="C183" s="3"/>
@@ -2845,7 +2836,7 @@
       <c r="A184" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="2">
         <v>0</v>
       </c>
       <c r="C184" s="3"/>
@@ -2854,7 +2845,7 @@
       <c r="A185" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="2">
         <v>0</v>
       </c>
       <c r="C185" s="3"/>
@@ -2863,7 +2854,7 @@
       <c r="A186" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="2">
         <v>0</v>
       </c>
       <c r="C186" s="3"/>
@@ -2872,7 +2863,7 @@
       <c r="A187" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="2">
         <v>2</v>
       </c>
       <c r="C187" s="3"/>
@@ -2881,7 +2872,7 @@
       <c r="A188" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="2">
         <v>0</v>
       </c>
       <c r="C188" s="3"/>
@@ -2890,7 +2881,7 @@
       <c r="A189" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="2">
         <v>0</v>
       </c>
       <c r="C189" s="3"/>
@@ -2899,7 +2890,7 @@
       <c r="A190" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="2">
         <v>0</v>
       </c>
       <c r="C190" s="3"/>
@@ -2908,7 +2899,7 @@
       <c r="A191" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="2">
         <v>0</v>
       </c>
       <c r="C191" s="3"/>
@@ -2917,7 +2908,7 @@
       <c r="A192" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="2">
         <v>2</v>
       </c>
       <c r="C192" s="3"/>
@@ -2926,7 +2917,7 @@
       <c r="A193" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="2">
         <v>2</v>
       </c>
       <c r="C193" s="3"/>
@@ -2935,7 +2926,7 @@
       <c r="A194" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="2">
         <v>0</v>
       </c>
       <c r="C194" s="3"/>
@@ -2944,7 +2935,7 @@
       <c r="A195" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="2">
         <v>0</v>
       </c>
       <c r="C195" s="3"/>
@@ -2953,7 +2944,7 @@
       <c r="A196" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="2">
         <v>2</v>
       </c>
       <c r="C196" s="3"/>
@@ -2962,7 +2953,7 @@
       <c r="A197" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="2">
         <v>2</v>
       </c>
       <c r="C197" s="3"/>
@@ -2971,7 +2962,7 @@
       <c r="A198" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="2">
         <v>2</v>
       </c>
       <c r="C198" s="3"/>
@@ -2980,7 +2971,7 @@
       <c r="A199" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="2">
         <v>2</v>
       </c>
       <c r="C199" s="3"/>
@@ -2989,7 +2980,7 @@
       <c r="A200" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="2">
         <v>1</v>
       </c>
       <c r="C200" s="3"/>
@@ -2998,7 +2989,7 @@
       <c r="A201" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="2">
         <v>1</v>
       </c>
       <c r="C201" s="3"/>
@@ -3007,7 +2998,7 @@
       <c r="A202" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="2">
         <v>2</v>
       </c>
       <c r="C202" s="3"/>
@@ -3016,7 +3007,7 @@
       <c r="A203" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="2">
         <v>2</v>
       </c>
       <c r="C203" s="3"/>
@@ -3025,7 +3016,7 @@
       <c r="A204" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="2">
         <v>0</v>
       </c>
       <c r="C204" s="3"/>
@@ -3034,8 +3025,8 @@
       <c r="A205" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B205" s="4">
-        <v>0</v>
+      <c r="B205" s="2">
+        <v>1</v>
       </c>
       <c r="C205" s="3"/>
     </row>
@@ -3043,7 +3034,7 @@
       <c r="A206" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="2">
         <v>0</v>
       </c>
       <c r="C206" s="3"/>
@@ -3052,7 +3043,7 @@
       <c r="A207" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="2">
         <v>2</v>
       </c>
       <c r="C207" s="3"/>
@@ -3061,7 +3052,7 @@
       <c r="A208" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="2">
         <v>0</v>
       </c>
       <c r="C208" s="3"/>
@@ -3070,7 +3061,7 @@
       <c r="A209" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="3"/>
@@ -3079,7 +3070,7 @@
       <c r="A210" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="2">
         <v>0</v>
       </c>
       <c r="C210" s="3"/>
@@ -3088,8 +3079,8 @@
       <c r="A211" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B211" s="4">
-        <v>0</v>
+      <c r="B211" s="2">
+        <v>1</v>
       </c>
       <c r="C211" s="3"/>
     </row>
@@ -3097,7 +3088,7 @@
       <c r="A212" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="2">
         <v>2</v>
       </c>
       <c r="C212" s="3"/>
@@ -3106,7 +3097,7 @@
       <c r="A213" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="2">
         <v>0</v>
       </c>
       <c r="C213" s="3"/>
@@ -3115,7 +3106,7 @@
       <c r="A214" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="2">
         <v>2</v>
       </c>
       <c r="C214" s="3"/>
@@ -3124,7 +3115,7 @@
       <c r="A215" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="2">
         <v>0</v>
       </c>
       <c r="C215" s="3"/>
@@ -3133,8 +3124,8 @@
       <c r="A216" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B216" s="4">
-        <v>0</v>
+      <c r="B216" s="2">
+        <v>1</v>
       </c>
       <c r="C216" s="3"/>
     </row>
@@ -3142,7 +3133,7 @@
       <c r="A217" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="2">
         <v>0</v>
       </c>
       <c r="C217" s="3"/>
@@ -3151,8 +3142,8 @@
       <c r="A218" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B218" s="4">
-        <v>0</v>
+      <c r="B218" s="2">
+        <v>1</v>
       </c>
       <c r="C218" s="3"/>
     </row>
@@ -3160,7 +3151,7 @@
       <c r="A219" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="2">
         <v>2</v>
       </c>
       <c r="C219" s="3"/>
@@ -3169,7 +3160,7 @@
       <c r="A220" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="2">
         <v>2</v>
       </c>
       <c r="C220" s="3"/>
@@ -3178,7 +3169,7 @@
       <c r="A221" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="2">
         <v>0</v>
       </c>
       <c r="C221" s="3"/>
@@ -3187,7 +3178,7 @@
       <c r="A222" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="2">
         <v>2</v>
       </c>
       <c r="C222" s="3"/>
@@ -3196,7 +3187,7 @@
       <c r="A223" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="2">
         <v>2</v>
       </c>
       <c r="C223" s="3"/>
@@ -3205,7 +3196,7 @@
       <c r="A224" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="2">
         <v>0</v>
       </c>
       <c r="C224" s="3"/>
@@ -3214,8 +3205,8 @@
       <c r="A225" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="4">
-        <v>0</v>
+      <c r="B225" s="2">
+        <v>1</v>
       </c>
       <c r="C225" s="3"/>
     </row>
@@ -3223,7 +3214,7 @@
       <c r="A226" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="2">
         <v>0</v>
       </c>
       <c r="C226" s="3"/>
@@ -3232,7 +3223,7 @@
       <c r="A227" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="2">
         <v>1</v>
       </c>
       <c r="C227" s="3"/>
@@ -3241,7 +3232,7 @@
       <c r="A228" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="2">
         <v>0</v>
       </c>
       <c r="C228" s="3"/>
@@ -3250,8 +3241,8 @@
       <c r="A229" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="4">
-        <v>0</v>
+      <c r="B229" s="2">
+        <v>1</v>
       </c>
       <c r="C229" s="3"/>
     </row>
@@ -3259,7 +3250,7 @@
       <c r="A230" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="2">
         <v>0</v>
       </c>
       <c r="C230" s="3"/>
@@ -3268,7 +3259,7 @@
       <c r="A231" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="3"/>
@@ -3277,7 +3268,7 @@
       <c r="A232" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="2">
         <v>1</v>
       </c>
       <c r="C232" s="3"/>
@@ -3286,7 +3277,7 @@
       <c r="A233" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="2">
         <v>0</v>
       </c>
       <c r="C233" s="3"/>
@@ -3295,7 +3286,7 @@
       <c r="A234" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="2">
         <v>0</v>
       </c>
       <c r="C234" s="3"/>
@@ -3304,8 +3295,8 @@
       <c r="A235" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="4">
-        <v>1</v>
+      <c r="B235" s="2">
+        <v>2</v>
       </c>
       <c r="C235" s="3"/>
     </row>
@@ -3313,7 +3304,7 @@
       <c r="A236" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="2">
         <v>0</v>
       </c>
       <c r="C236" s="3"/>
@@ -3322,7 +3313,7 @@
       <c r="A237" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="2">
         <v>0</v>
       </c>
       <c r="C237" s="3"/>
@@ -3331,7 +3322,7 @@
       <c r="A238" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="2">
         <v>0</v>
       </c>
       <c r="C238" s="3"/>
@@ -3340,7 +3331,7 @@
       <c r="A239" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="2">
         <v>0</v>
       </c>
       <c r="C239" s="3"/>
@@ -3349,7 +3340,7 @@
       <c r="A240" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="2">
         <v>0</v>
       </c>
       <c r="C240" s="3"/>
@@ -3358,7 +3349,7 @@
       <c r="A241" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="2">
         <v>0</v>
       </c>
       <c r="C241" s="3"/>
@@ -3367,7 +3358,7 @@
       <c r="A242" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="2">
         <v>0</v>
       </c>
       <c r="C242" s="3"/>
@@ -3376,7 +3367,7 @@
       <c r="A243" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="2">
         <v>0</v>
       </c>
       <c r="C243" s="3"/>
@@ -3385,8 +3376,8 @@
       <c r="A244" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="4">
-        <v>1</v>
+      <c r="B244" s="2">
+        <v>2</v>
       </c>
       <c r="C244" s="3"/>
     </row>
@@ -3394,7 +3385,7 @@
       <c r="A245" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="2">
         <v>0</v>
       </c>
       <c r="C245" s="3"/>
@@ -3403,8 +3394,8 @@
       <c r="A246" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="4">
-        <v>1</v>
+      <c r="B246" s="2">
+        <v>2</v>
       </c>
       <c r="C246" s="3"/>
     </row>
@@ -3412,7 +3403,7 @@
       <c r="A247" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="2">
         <v>0</v>
       </c>
       <c r="C247" s="3"/>
@@ -3421,8 +3412,8 @@
       <c r="A248" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="4">
-        <v>1</v>
+      <c r="B248" s="2">
+        <v>2</v>
       </c>
       <c r="C248" s="3"/>
     </row>
@@ -3430,7 +3421,7 @@
       <c r="A249" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="2">
         <v>0</v>
       </c>
       <c r="C249" s="3"/>
@@ -3439,7 +3430,7 @@
       <c r="A250" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="2">
         <v>0</v>
       </c>
       <c r="C250" s="3"/>
@@ -3448,7 +3439,7 @@
       <c r="A251" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="2">
         <v>0</v>
       </c>
       <c r="C251" s="3"/>

--- a/dados_teste 1.xlsx
+++ b/dados_teste 1.xlsx
@@ -1820,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -1829,7 +1829,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="3"/>
     </row>
